--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.16.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.16.xlsx
@@ -49,30 +49,30 @@
     <t>גב' רונן</t>
   </si>
   <si>
+    <t>יעל.</t>
+  </si>
+  <si>
+    <t>יעל נעים מאוד.</t>
+  </si>
+  <si>
+    <t>(לא נשמע).</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>כן, יואב.</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>יעל.</t>
-  </si>
-  <si>
-    <t>יעל נעים מאוד.</t>
-  </si>
-  <si>
-    <t>(לא נשמע).</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>כן, יואב.</t>
+    <t>agree</t>
   </si>
   <si>
     <t>כן.</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>הוא הגיע אתך.</t>
   </si>
   <si>
@@ -109,46 +109,46 @@
     <t>?med</t>
   </si>
   <si>
+    <t>אם זה לא לאחרונה?</t>
+  </si>
+  <si>
+    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
+  </si>
+  <si>
+    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
+  </si>
+  <si>
+    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
+  </si>
+  <si>
+    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
+  </si>
+  <si>
+    <t>ליואב?</t>
+  </si>
+  <si>
+    <t>ליואב סכרת?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
+  </si>
+  <si>
+    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
+  </si>
+  <si>
     <t>r/o</t>
-  </si>
-  <si>
-    <t>אם זה לא לאחרונה?</t>
-  </si>
-  <si>
-    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
-  </si>
-  <si>
-    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
-  </si>
-  <si>
-    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
-  </si>
-  <si>
-    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
-  </si>
-  <si>
-    <t>ליואב?</t>
-  </si>
-  <si>
-    <t>ליואב סכרת?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
-  </si>
-  <si>
-    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
   </si>
   <si>
     <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
@@ -782,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -832,13 +832,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -978,7 +978,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
         <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
         <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1185,7 +1185,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1199,7 +1199,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1213,7 +1213,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
@@ -1241,7 +1241,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1269,7 +1269,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
@@ -1342,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1381,7 +1381,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1437,7 +1437,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1454,7 +1454,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1482,7 +1482,7 @@
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1507,7 +1507,7 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1521,7 +1521,7 @@
         <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1563,7 +1563,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
         <v>14</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1605,10 +1605,10 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1619,7 +1619,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1647,10 +1647,10 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1661,10 +1661,10 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1675,10 +1675,10 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1689,7 +1689,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
@@ -1731,7 +1731,7 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1745,7 +1745,7 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1801,10 +1801,10 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1874,7 +1874,7 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1899,7 +1899,7 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -1916,7 +1916,7 @@
         <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1927,10 +1927,10 @@
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1955,10 +1955,10 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
         <v>14</v>
-      </c>
-      <c r="B89" t="s">
-        <v>15</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -1983,7 +1983,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
@@ -2011,7 +2011,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2039,7 +2039,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2053,10 +2053,10 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2081,7 +2081,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2095,10 +2095,10 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2123,10 +2123,10 @@
         <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2137,7 +2137,7 @@
         <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2151,7 +2151,7 @@
         <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2165,10 +2165,10 @@
         <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2179,7 +2179,7 @@
         <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -2224,7 +2224,7 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2252,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
